--- a/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEAD151-CEE0-4BB9-A74C-A4787E11C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC8BF60-E95E-4FC0-A3AF-1844A2680526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{178725E2-9AA1-4E27-BFB2-870BECA1BADF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D6C16502-A5F8-4643-B080-0076F61858CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -66,18 +66,63 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>57,8%</t>
   </si>
   <si>
@@ -93,18 +138,12 @@
     <t>37,6%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>85,9%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>91,1%</t>
   </si>
   <si>
@@ -117,31 +156,31 @@
     <t>62,4%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -153,9 +192,6 @@
     <t>52,71%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>8,96%</t>
   </si>
   <si>
@@ -168,48 +204,12 @@
     <t>47,29%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>91,04%</t>
   </si>
   <si>
     <t>59,07%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
     <t>7,76%</t>
   </si>
   <si>
@@ -255,6 +255,18 @@
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2015 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
     <t>7,99%</t>
   </si>
   <si>
@@ -285,10 +297,34 @@
     <t>81,08%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>13,41%</t>
@@ -313,42 +349,6 @@
   </si>
   <si>
     <t>64,47%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
   </si>
   <si>
     <t>6,59%</t>
@@ -782,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E518D91D-E9B5-48FF-8D57-D11E0AD1B8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA4C622-1E24-4835-BCC2-89C9A73ADD29}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -900,100 +900,96 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>582</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>5956</v>
+        <v>850</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>10058</v>
+        <v>850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1002,54 +998,52 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>6538</v>
+        <v>850</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>11313</v>
+        <v>850</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1064,10 +1058,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1079,10 +1073,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1094,16 +1088,16 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1112,13 +1106,13 @@
         <v>5990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1127,13 +1121,13 @@
         <v>4006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -1142,13 +1136,13 @@
         <v>9996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1163,13 +1157,13 @@
         <v>5990</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1178,13 +1172,13 @@
         <v>4006</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -1193,18 +1187,18 @@
         <v>9996</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1213,97 +1207,97 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1097</v>
+        <v>673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1097</v>
+        <v>1255</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>7641</v>
+        <v>4102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>3506</v>
+        <v>5956</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>11148</v>
+        <v>10058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,54 +1306,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>8738</v>
+        <v>4775</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>3506</v>
+        <v>6538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>12245</v>
+        <v>11313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1367,94 +1361,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3300</v>
+      </c>
       <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1270</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4571</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>850</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>850</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,142 +1461,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3300</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>850</v>
+        <v>1897</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>850</v>
+        <v>5198</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>627</v>
+        <v>1097</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7641</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="7">
-        <v>3300</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
       <c r="I17" s="7">
-        <v>1270</v>
+        <v>3506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>4571</v>
+        <v>11148</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>55</v>
@@ -1607,7 +1607,7 @@
         <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,49 +1616,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8738</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
-        <v>3300</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
       <c r="I18" s="7">
-        <v>1897</v>
+        <v>3506</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N18" s="7">
-        <v>5198</v>
+        <v>12245</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,7 +1717,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>30</v>
@@ -1732,7 +1732,7 @@
         <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -1747,7 +1747,7 @@
         <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -1777,13 +1777,13 @@
         <v>22803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -1792,13 +1792,13 @@
         <v>16798</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>57</v>
@@ -1807,13 +1807,13 @@
         <v>39602</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF154380-2ECB-4A57-A847-77122819F363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D63FE2B-1509-44E9-9C2A-53B3DCDCBFF6}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1952,100 +1952,96 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7">
-        <v>8232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>9930</v>
+        <v>1764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>18162</v>
+        <v>1764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,54 +2050,52 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>9930</v>
+        <v>1764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>18877</v>
+        <v>1764</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2116,10 +2110,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2131,10 +2125,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2146,16 +2140,16 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -2164,13 +2158,13 @@
         <v>4562</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2179,13 +2173,13 @@
         <v>3964</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2194,13 +2188,13 @@
         <v>8526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2209,13 @@
         <v>4562</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2230,13 +2224,13 @@
         <v>3964</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2245,117 +2239,117 @@
         <v>8526</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>554</v>
+        <v>715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>4474</v>
+        <v>8232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>3575</v>
+        <v>9930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>8049</v>
+        <v>18162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,70 +2358,72 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>4474</v>
+        <v>8947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>4129</v>
+        <v>9930</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N12" s="7">
-        <v>8603</v>
+        <v>18877</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>807</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2439,74 +2435,76 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4308</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1764</v>
+        <v>1881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>1764</v>
+        <v>6189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,142 +2513,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5115</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>1764</v>
+        <v>1881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N15" s="7">
-        <v>1764</v>
+        <v>6996</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>807</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>807</v>
+        <v>554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>4308</v>
+        <v>4474</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3575</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1881</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>6189</v>
+        <v>8049</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2659,7 +2659,7 @@
         <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,49 +2668,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>5115</v>
+        <v>4474</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>1881</v>
+        <v>4129</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>6996</v>
+        <v>8603</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>31</v>
@@ -2784,7 +2784,7 @@
         <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2799,7 +2799,7 @@
         <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -2829,13 +2829,13 @@
         <v>23098</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -2844,13 +2844,13 @@
         <v>21668</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
@@ -2859,13 +2859,13 @@
         <v>44766</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC8BF60-E95E-4FC0-A3AF-1844A2680526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F26CA53-5BA5-4A88-9F8E-0D6BF27DD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D6C16502-A5F8-4643-B080-0076F61858CC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{304B8A83-A056-4F62-8537-9632233C50F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="119">
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
@@ -69,12 +69,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -84,21 +96,18 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>20,75%</t>
   </si>
   <si>
@@ -108,57 +117,60 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>57,8%</t>
+    <t>57,66%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>37,49%</t>
+    <t>41,34%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>34,31%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
@@ -168,58 +180,67 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>50,98%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>52,71%</t>
+    <t>50,23%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>25,38%</t>
+    <t>22,03%</t>
   </si>
   <si>
     <t>7,52%</t>
@@ -228,49 +249,46 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2015 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>43,07%</t>
+    <t>85,49%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>85,49%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>40,14%</t>
+    <t>40,58%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -279,28 +297,28 @@
     <t>3,79%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>68,69%</t>
+    <t>57,42%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -309,88 +327,73 @@
     <t>11,54%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>62,56%</t>
+    <t>58,91%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>19,56%</t>
+    <t>20,04%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>15,58%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -497,39 +500,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -581,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -692,13 +695,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -707,6 +703,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -771,19 +774,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA4C622-1E24-4835-BCC2-89C9A73ADD29}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86DBB70-F724-4CEA-A37F-BA79D48F0FC1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -913,10 +936,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -928,10 +951,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -962,10 +985,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -977,10 +1000,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1017,13 +1040,13 @@
         <v>850</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1032,13 +1055,13 @@
         <v>850</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1049,49 +1072,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5990</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4006</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1100,49 +1123,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>5990</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4006</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1157,13 +1180,13 @@
         <v>5990</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1172,13 +1195,13 @@
         <v>4006</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -1187,13 +1210,13 @@
         <v>9996</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,49 +1227,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>673</v>
+        <v>4102</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>582</v>
+        <v>5956</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>1255</v>
+        <v>10058</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,49 +1278,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>4102</v>
+        <v>673</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>5956</v>
+        <v>582</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>10058</v>
+        <v>1255</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,13 +1335,13 @@
         <v>4775</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1327,13 +1350,13 @@
         <v>6538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -1342,13 +1365,13 @@
         <v>11313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,49 +1382,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>627</v>
+        <v>1270</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>627</v>
+        <v>4571</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,49 +1433,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1270</v>
+        <v>627</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>4571</v>
+        <v>627</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,13 +1490,13 @@
         <v>3300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1482,13 +1505,13 @@
         <v>1897</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -1497,13 +1520,13 @@
         <v>5198</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,49 +1537,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>1097</v>
+        <v>7641</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3506</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>1097</v>
+        <v>11148</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,49 +1588,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>7641</v>
+        <v>1097</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>3506</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>11148</v>
+        <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,13 +1645,13 @@
         <v>8738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1637,13 +1660,13 @@
         <v>3506</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -1652,13 +1675,13 @@
         <v>12245</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,40 +1692,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>1771</v>
+        <v>21032</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>1209</v>
+        <v>15589</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>2980</v>
+        <v>36622</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>61</v>
@@ -1720,40 +1743,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>21032</v>
+        <v>1771</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="H20" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>15589</v>
+        <v>1209</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M20" s="7">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>36622</v>
+        <v>2980</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>68</v>
@@ -1777,13 +1800,13 @@
         <v>22803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -1792,13 +1815,13 @@
         <v>16798</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
         <v>57</v>
@@ -1807,13 +1830,18 @@
         <v>39602</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1834,8 +1862,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D63FE2B-1509-44E9-9C2A-53B3DCDCBFF6}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6FD1E9-5BCE-42D3-8975-00AD11866FE2}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1851,7 +1879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1965,34 +1993,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,34 +2042,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1764</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1764</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2097,13 @@
         <v>1764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2084,13 +2112,13 @@
         <v>1764</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,49 +2129,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4562</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3964</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>8526</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,49 +2180,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>4562</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>3964</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>8526</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2237,13 @@
         <v>4562</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2224,13 +2252,13 @@
         <v>3964</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2239,13 +2267,13 @@
         <v>8526</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,49 +2284,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>715</v>
+        <v>8232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>9930</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>715</v>
+        <v>18162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,49 +2335,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>8232</v>
+        <v>715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>9930</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>18162</v>
+        <v>715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2392,13 @@
         <v>8947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -2379,13 +2407,13 @@
         <v>9930</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -2394,13 +2422,13 @@
         <v>18877</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,49 +2439,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>807</v>
+        <v>4308</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>807</v>
+        <v>6189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,49 +2490,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>4308</v>
+        <v>807</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1881</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>6189</v>
+        <v>807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2547,13 @@
         <v>5115</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2534,13 +2562,13 @@
         <v>1881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -2549,13 +2577,13 @@
         <v>6996</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,49 +2594,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>4474</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>554</v>
+        <v>3575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>554</v>
+        <v>8049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,49 +2645,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>4474</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>3575</v>
+        <v>554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>8049</v>
+        <v>554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2702,13 @@
         <v>4474</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2689,13 +2717,13 @@
         <v>4129</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2704,13 +2732,13 @@
         <v>8603</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,49 +2749,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>1522</v>
+        <v>21576</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>554</v>
+        <v>21114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>2076</v>
+        <v>42690</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,49 +2800,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>21576</v>
+        <v>1522</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>21114</v>
+        <v>554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>42690</v>
+        <v>2076</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2857,13 @@
         <v>23098</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -2844,13 +2872,13 @@
         <v>21668</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
@@ -2859,13 +2887,18 @@
         <v>44766</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F26CA53-5BA5-4A88-9F8E-0D6BF27DD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{667BF4AB-58DC-44A4-BFD3-0B889646F62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{304B8A83-A056-4F62-8537-9632233C50F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DDDD966-043B-44DA-872B-C7A195DC4D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="117">
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -96,7 +96,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -117,46 +117,46 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>85,9%</t>
   </si>
   <si>
-    <t>42,34%</t>
+    <t>42,49%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>58,66%</t>
+    <t>62,23%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>65,69%</t>
+    <t>65,23%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>57,66%</t>
+    <t>57,51%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>41,34%</t>
+    <t>37,77%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -168,7 +168,7 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>49,02%</t>
+    <t>49,52%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -180,7 +180,7 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>50,98%</t>
+    <t>50,48%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -189,73 +189,73 @@
     <t>87,44%</t>
   </si>
   <si>
-    <t>49,77%</t>
+    <t>51,85%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>66,61%</t>
+    <t>58,37%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>50,23%</t>
+    <t>48,15%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>33,39%</t>
+    <t>41,63%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>73,76%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>77,97%</t>
+    <t>75,62%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>24,2%</t>
+    <t>26,24%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2015 (Tasa respuesta: 3,06%)</t>
+    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2016 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -273,7 +273,7 @@
     <t>92,01%</t>
   </si>
   <si>
-    <t>59,42%</t>
+    <t>60,67%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -282,13 +282,13 @@
     <t>96,21%</t>
   </si>
   <si>
-    <t>81,6%</t>
+    <t>81,24%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>40,58%</t>
+    <t>39,33%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -297,13 +297,13 @@
     <t>3,79%</t>
   </si>
   <si>
-    <t>18,4%</t>
+    <t>18,76%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>42,58%</t>
+    <t>42,61%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -312,13 +312,13 @@
     <t>88,46%</t>
   </si>
   <si>
-    <t>56,17%</t>
+    <t>56,2%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>57,42%</t>
+    <t>57,39%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -327,73 +327,67 @@
     <t>11,54%</t>
   </si>
   <si>
-    <t>43,83%</t>
+    <t>43,8%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>41,09%</t>
+    <t>36,62%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>64,63%</t>
+    <t>64,96%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>58,91%</t>
+    <t>63,38%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>35,37%</t>
+    <t>35,04%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>79,96%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>84,42%</t>
+    <t>84,35%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>87,88%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>20,04%</t>
+    <t>20,12%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>15,58%</t>
+    <t>15,65%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>12,12%</t>
   </si>
 </sst>
 </file>
@@ -805,7 +799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86DBB70-F724-4CEA-A37F-BA79D48F0FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CD0EB7-8B37-465D-961F-632B113C2CB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1862,7 +1856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6FD1E9-5BCE-42D3-8975-00AD11866FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076A529-3D35-4D95-9E20-D73F49E6F5A6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,7 +2785,7 @@
         <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2800,13 @@
         <v>1522</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2821,13 +2815,13 @@
         <v>554</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2836,13 +2830,13 @@
         <v>2076</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{667BF4AB-58DC-44A4-BFD3-0B889646F62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B641ACE0-39BE-4452-A249-838AC240D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DDDD966-043B-44DA-872B-C7A195DC4D3D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC6E593F-DC9D-420B-807F-1E96718048D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="113">
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -66,24 +66,27 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>76,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -93,13 +96,154 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2016 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -108,286 +252,130 @@
     <t>87,39%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2016 (Tasa respuesta: 3,06%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>81,24%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>40,14%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>18,76%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>31,31%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>56,2%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>68,69%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>43,8%</t>
+    <t>47,51%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>36,62%</t>
+    <t>37,44%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>64,96%</t>
+    <t>64,47%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>63,38%</t>
+    <t>62,56%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>35,04%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>80,44%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>87,88%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>19,56%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>12,12%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
 </sst>
 </file>
@@ -799,8 +787,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CD0EB7-8B37-465D-961F-632B113C2CB5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124C4E31-E6C1-49D2-BE7D-1ADFBB1B0820}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -917,66 +905,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4857</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>850</v>
+        <v>5990</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>850</v>
+        <v>10846</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -985,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1000,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1015,151 +1007,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4857</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>850</v>
+        <v>5990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>850</v>
+        <v>10846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>5990</v>
+        <v>5956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4006</v>
+        <v>4102</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>9996</v>
+        <v>10058</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1168,153 +1162,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>5990</v>
+        <v>6538</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>4006</v>
+        <v>4775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>9996</v>
+        <v>11313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>4102</v>
+        <v>1270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5956</v>
+        <v>3300</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>10058</v>
+        <v>4571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>673</v>
+        <v>627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
-        <v>582</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
       <c r="N11" s="7">
-        <v>1255</v>
+        <v>627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,54 +1317,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>4775</v>
+        <v>1897</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>6538</v>
+        <v>3300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>11313</v>
+        <v>5198</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1379,52 +1373,52 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3300</v>
+        <v>3506</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>1270</v>
+        <v>7641</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
         <v>16</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
       <c r="N13" s="7">
-        <v>4571</v>
+        <v>11148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1433,43 +1427,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>627</v>
+        <v>1097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>627</v>
+        <v>1097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,150 +1475,150 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>3300</v>
+        <v>3506</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>1897</v>
+        <v>8738</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>5198</v>
+        <v>12245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>7641</v>
+        <v>15589</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>3506</v>
+        <v>21032</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>11148</v>
+        <v>36622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1097</v>
+        <v>1209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1771</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1097</v>
+        <v>2980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,217 +1627,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>8738</v>
+        <v>16798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>3506</v>
+        <v>22803</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>12245</v>
+        <v>39602</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>21032</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15589</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="7">
-        <v>53</v>
-      </c>
-      <c r="N19" s="7">
-        <v>36622</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1771</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1209</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2980</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7">
-        <v>22803</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>25</v>
-      </c>
-      <c r="I21" s="7">
-        <v>16798</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>57</v>
-      </c>
-      <c r="N21" s="7">
-        <v>39602</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1856,8 +1694,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076A529-3D35-4D95-9E20-D73F49E6F5A6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE421D5A-7451-4D2B-9F9F-741E3BDF4C33}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,7 +1711,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1974,66 +1812,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5728</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>1764</v>
+        <v>4562</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
       <c r="N4" s="7">
-        <v>1764</v>
+        <v>10290</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2042,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2057,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,106 +1914,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5728</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>1764</v>
+        <v>4562</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
       <c r="N6" s="7">
-        <v>1764</v>
+        <v>10290</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>4562</v>
+        <v>9930</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
       <c r="I7" s="7">
-        <v>3964</v>
+        <v>8232</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>8526</v>
+        <v>18162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2180,43 +2024,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,153 +2069,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>4562</v>
+        <v>9930</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>3964</v>
+        <v>8947</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N9" s="7">
-        <v>8526</v>
+        <v>18877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>8232</v>
+        <v>1881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>9930</v>
+        <v>4308</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>18162</v>
+        <v>6189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>715</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>715</v>
+        <v>807</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,123 +2224,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>8947</v>
+        <v>1881</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>9930</v>
+        <v>5115</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>18877</v>
+        <v>6996</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4308</v>
+        <v>3575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>1881</v>
+        <v>4474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>6189</v>
+        <v>8049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>807</v>
+        <v>554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2505,28 +2349,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>807</v>
+        <v>554</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,153 +2379,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>5115</v>
+        <v>4129</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>1881</v>
+        <v>4474</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N15" s="7">
-        <v>6996</v>
+        <v>8603</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>4474</v>
+        <v>21114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>3575</v>
+        <v>21576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>8049</v>
+        <v>42690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>554</v>
+        <v>1522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>554</v>
+        <v>2076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,217 +2534,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>4474</v>
+        <v>21668</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I18" s="7">
-        <v>4129</v>
+        <v>23098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>8603</v>
+        <v>44766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7">
-        <v>21576</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21114</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="7">
-        <v>62</v>
-      </c>
-      <c r="N19" s="7">
-        <v>42690</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1522</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>554</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2076</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>33</v>
-      </c>
-      <c r="D21" s="7">
-        <v>23098</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>32</v>
-      </c>
-      <c r="I21" s="7">
-        <v>21668</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>65</v>
-      </c>
-      <c r="N21" s="7">
-        <v>44766</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>71</v>
+      <c r="A19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
